--- a/data/pca/factorExposure/factorExposure_2013-06-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-03.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001605889972003716</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001913501335128728</v>
+      </c>
+      <c r="C2">
+        <v>-0.03262726254315481</v>
+      </c>
+      <c r="D2">
+        <v>-0.002679537040766123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001286408140387336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005928311283577878</v>
+      </c>
+      <c r="C4">
+        <v>-0.08354852572380492</v>
+      </c>
+      <c r="D4">
+        <v>-0.08083278863094666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0005178177117511319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01313755053006931</v>
+      </c>
+      <c r="C6">
+        <v>-0.1081397204922681</v>
+      </c>
+      <c r="D6">
+        <v>-0.03538038007613239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001627589089379537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004972677143995522</v>
+      </c>
+      <c r="C7">
+        <v>-0.05086059218902159</v>
+      </c>
+      <c r="D7">
+        <v>-0.03741330573218046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001752026499638424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005665883260200463</v>
+      </c>
+      <c r="C8">
+        <v>-0.03673806384342947</v>
+      </c>
+      <c r="D8">
+        <v>-0.04079395233888573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.00519405576603768</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.00392685447827652</v>
+      </c>
+      <c r="C9">
+        <v>-0.06817973674827153</v>
+      </c>
+      <c r="D9">
+        <v>-0.06973580162034597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.00557580174086273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005705383615668452</v>
+      </c>
+      <c r="C10">
+        <v>-0.07661155277904329</v>
+      </c>
+      <c r="D10">
+        <v>0.2091124280502435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.005048038667422527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.004932448237603876</v>
+      </c>
+      <c r="C11">
+        <v>-0.07788840800224081</v>
+      </c>
+      <c r="D11">
+        <v>-0.06601014399324781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0007494944739049563</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003648320316201206</v>
+      </c>
+      <c r="C12">
+        <v>-0.06257808478235065</v>
+      </c>
+      <c r="D12">
+        <v>-0.04734262011165831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.004030446071771078</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008548948272010351</v>
+      </c>
+      <c r="C13">
+        <v>-0.06890199664516719</v>
+      </c>
+      <c r="D13">
+        <v>-0.06998418400478455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.003263908887015976</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001586004851784815</v>
+      </c>
+      <c r="C14">
+        <v>-0.04567825683055834</v>
+      </c>
+      <c r="D14">
+        <v>-0.01445876853172896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.003168060297807287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005578024391920375</v>
+      </c>
+      <c r="C15">
+        <v>-0.0372646645449958</v>
+      </c>
+      <c r="D15">
+        <v>-0.04056100916942005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002514724319779657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004786228798805366</v>
+      </c>
+      <c r="C16">
+        <v>-0.06400885980267647</v>
+      </c>
+      <c r="D16">
+        <v>-0.05089526261228269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0007925473566773329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008939620490234095</v>
+      </c>
+      <c r="C20">
+        <v>-0.06422148432735302</v>
+      </c>
+      <c r="D20">
+        <v>-0.05767810588596263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.004474775773877456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009846948762287328</v>
+      </c>
+      <c r="C21">
+        <v>-0.02330232023470272</v>
+      </c>
+      <c r="D21">
+        <v>-0.03787451472673785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01620800706291978</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007046694279324305</v>
+      </c>
+      <c r="C22">
+        <v>-0.09006404110254869</v>
+      </c>
+      <c r="D22">
+        <v>-0.09936445756126276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01646006571684273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.00683725005991623</v>
+      </c>
+      <c r="C23">
+        <v>-0.09113265937508938</v>
+      </c>
+      <c r="D23">
+        <v>-0.09997901066023585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003655762944394904</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004553770229483089</v>
+      </c>
+      <c r="C24">
+        <v>-0.07221020993881393</v>
+      </c>
+      <c r="D24">
+        <v>-0.06040895411840616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005265635696903108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002618013683444063</v>
+      </c>
+      <c r="C25">
+        <v>-0.07642693066752064</v>
+      </c>
+      <c r="D25">
+        <v>-0.06565944695934414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005992242760795876</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.00352173814628053</v>
+      </c>
+      <c r="C26">
+        <v>-0.0405999496287501</v>
+      </c>
+      <c r="D26">
+        <v>-0.0288590036391547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005073435752775994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0006000595964947515</v>
+      </c>
+      <c r="C28">
+        <v>-0.1273540248510111</v>
+      </c>
+      <c r="D28">
+        <v>0.3073158929856315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001652232375328812</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003211304209839985</v>
+      </c>
+      <c r="C29">
+        <v>-0.04765466364258882</v>
+      </c>
+      <c r="D29">
+        <v>-0.01689586663526178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005229290272862353</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008561103097864294</v>
+      </c>
+      <c r="C30">
+        <v>-0.1362208066894247</v>
+      </c>
+      <c r="D30">
+        <v>-0.1074886217993587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>8.545289272510782e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006014386341740703</v>
+      </c>
+      <c r="C31">
+        <v>-0.04455250182273335</v>
+      </c>
+      <c r="D31">
+        <v>-0.03561341517411565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001615511532283631</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003814597539073282</v>
+      </c>
+      <c r="C32">
+        <v>-0.039578544024271</v>
+      </c>
+      <c r="D32">
+        <v>-0.01351489935353442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002883707046272022</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007604928216704719</v>
+      </c>
+      <c r="C33">
+        <v>-0.08107698650341567</v>
+      </c>
+      <c r="D33">
+        <v>-0.07764351210493897</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005307775286815228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003593631819138475</v>
+      </c>
+      <c r="C34">
+        <v>-0.05639757570636552</v>
+      </c>
+      <c r="D34">
+        <v>-0.04586893349121469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.003683393173756037</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004783355219895224</v>
+      </c>
+      <c r="C35">
+        <v>-0.03811013592464524</v>
+      </c>
+      <c r="D35">
+        <v>-0.01295160227109998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004585405068656616</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001478851854635232</v>
+      </c>
+      <c r="C36">
+        <v>-0.02327983833612095</v>
+      </c>
+      <c r="D36">
+        <v>-0.02331757049308054</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002342868177940967</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009454676703289783</v>
+      </c>
+      <c r="C38">
+        <v>-0.0336230373675404</v>
+      </c>
+      <c r="D38">
+        <v>-0.02965223076889885</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01353571953336332</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001106918143221007</v>
+      </c>
+      <c r="C39">
+        <v>-0.1148910476554634</v>
+      </c>
+      <c r="D39">
+        <v>-0.08139892265917545</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007435811387055707</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002152908540885262</v>
+      </c>
+      <c r="C40">
+        <v>-0.08545242422092082</v>
+      </c>
+      <c r="D40">
+        <v>-0.02597884211766899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0002888641845930872</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007254784021041787</v>
+      </c>
+      <c r="C41">
+        <v>-0.03843241040962724</v>
+      </c>
+      <c r="D41">
+        <v>-0.03704204970091002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002825406868281745</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003122392650652511</v>
+      </c>
+      <c r="C43">
+        <v>-0.04987819088623369</v>
+      </c>
+      <c r="D43">
+        <v>-0.02944828336511638</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005241142046720688</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003499994564781615</v>
+      </c>
+      <c r="C44">
+        <v>-0.1070485573734842</v>
+      </c>
+      <c r="D44">
+        <v>-0.0854500501200962</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002395798105188264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.00242962597383293</v>
+      </c>
+      <c r="C46">
+        <v>-0.03464242469594471</v>
+      </c>
+      <c r="D46">
+        <v>-0.03548062622909191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001261188805730152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002863994008038787</v>
+      </c>
+      <c r="C47">
+        <v>-0.03847290349874143</v>
+      </c>
+      <c r="D47">
+        <v>-0.02918946634129954</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003919915467251822</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006499255813119174</v>
+      </c>
+      <c r="C48">
+        <v>-0.0291155881056622</v>
+      </c>
+      <c r="D48">
+        <v>-0.03191897974248475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01387098789184188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01369553354932436</v>
+      </c>
+      <c r="C49">
+        <v>-0.1711965747211543</v>
+      </c>
+      <c r="D49">
+        <v>-0.03491383870982549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0003474313059092503</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003563287723926538</v>
+      </c>
+      <c r="C50">
+        <v>-0.0411210698111747</v>
+      </c>
+      <c r="D50">
+        <v>-0.04032744419723912</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001424596616585011</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004019107594069343</v>
+      </c>
+      <c r="C51">
+        <v>-0.01926852361304572</v>
+      </c>
+      <c r="D51">
+        <v>-0.03222701304084805</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001582932108688104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02019432750133312</v>
+      </c>
+      <c r="C53">
+        <v>-0.1651140126902589</v>
+      </c>
+      <c r="D53">
+        <v>-0.05396687789476842</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-4.170068453627067e-05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008281471111236184</v>
+      </c>
+      <c r="C54">
+        <v>-0.05524255979113522</v>
+      </c>
+      <c r="D54">
+        <v>-0.0433032426348235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004384024332094078</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.00929486566172694</v>
+      </c>
+      <c r="C55">
+        <v>-0.1048488106482158</v>
+      </c>
+      <c r="D55">
+        <v>-0.05346372183397204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003471425672204107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01935242174001539</v>
+      </c>
+      <c r="C56">
+        <v>-0.1719448057802346</v>
+      </c>
+      <c r="D56">
+        <v>-0.05090931734847915</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008011103029248639</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01927800539185604</v>
+      </c>
+      <c r="C58">
+        <v>-0.1003378115490202</v>
+      </c>
+      <c r="D58">
+        <v>-0.08026995044052188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007274554106866646</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009213166932797527</v>
+      </c>
+      <c r="C59">
+        <v>-0.1698239043179293</v>
+      </c>
+      <c r="D59">
+        <v>0.2768655086704682</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006212818962746005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.0229769184291342</v>
+      </c>
+      <c r="C60">
+        <v>-0.2213142271981255</v>
+      </c>
+      <c r="D60">
+        <v>-0.02933645125354892</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01528567422813511</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002142074870760932</v>
+      </c>
+      <c r="C61">
+        <v>-0.09421210426999299</v>
+      </c>
+      <c r="D61">
+        <v>-0.0617151170846128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1840507925817127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1434917011319146</v>
+      </c>
+      <c r="C62">
+        <v>-0.07471626329653315</v>
+      </c>
+      <c r="D62">
+        <v>-0.05345074266731711</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002159202429925891</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006427701970473546</v>
+      </c>
+      <c r="C63">
+        <v>-0.05903304158107084</v>
+      </c>
+      <c r="D63">
+        <v>-0.02573868680020623</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.007368613299036944</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01458607488484414</v>
+      </c>
+      <c r="C64">
+        <v>-0.1020865032766102</v>
+      </c>
+      <c r="D64">
+        <v>-0.06456583266632501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0004487379937348768</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01678478233669166</v>
+      </c>
+      <c r="C65">
+        <v>-0.1138148720201866</v>
+      </c>
+      <c r="D65">
+        <v>-0.03022288394206689</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.009566947702070241</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01197180864280534</v>
+      </c>
+      <c r="C66">
+        <v>-0.1534625829587041</v>
+      </c>
+      <c r="D66">
+        <v>-0.1188392940424484</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002380444324713534</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01551607200948013</v>
+      </c>
+      <c r="C67">
+        <v>-0.06296151831332562</v>
+      </c>
+      <c r="D67">
+        <v>-0.03987880710987643</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007792241383852852</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001379539157452696</v>
+      </c>
+      <c r="C68">
+        <v>-0.1118845878116005</v>
+      </c>
+      <c r="D68">
+        <v>0.2624306897199996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.00343095286394269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005654983039873232</v>
+      </c>
+      <c r="C69">
+        <v>-0.04511502614362896</v>
+      </c>
+      <c r="D69">
+        <v>-0.04426999155613032</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001620881452497374</v>
+      </c>
+      <c r="C70">
+        <v>-0.0013489634594661</v>
+      </c>
+      <c r="D70">
+        <v>-0.002213516601627328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.003180482354832287</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006097746866541846</v>
+      </c>
+      <c r="C71">
+        <v>-0.1135898135939521</v>
+      </c>
+      <c r="D71">
+        <v>0.2831869532705448</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.0084455707441577</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01495097787671691</v>
+      </c>
+      <c r="C72">
+        <v>-0.1502509941925931</v>
+      </c>
+      <c r="D72">
+        <v>-0.02803534579156022</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01330261848386809</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02943885670226707</v>
+      </c>
+      <c r="C73">
+        <v>-0.282769230619761</v>
+      </c>
+      <c r="D73">
+        <v>-0.05326293573810109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00406267033328403</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001517734912191211</v>
+      </c>
+      <c r="C74">
+        <v>-0.1033375944123552</v>
+      </c>
+      <c r="D74">
+        <v>-0.04359875242855374</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006088750137596845</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01049881682742807</v>
+      </c>
+      <c r="C75">
+        <v>-0.1308390784398394</v>
+      </c>
+      <c r="D75">
+        <v>-0.04166608439304276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01204437616814717</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02115579893000499</v>
+      </c>
+      <c r="C76">
+        <v>-0.1444844353233497</v>
+      </c>
+      <c r="D76">
+        <v>-0.07485902832026754</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.003180784741518852</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02382142078590491</v>
+      </c>
+      <c r="C77">
+        <v>-0.1330279441450579</v>
+      </c>
+      <c r="D77">
+        <v>-0.06783868756723713</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0008823198182672621</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01390358037596435</v>
+      </c>
+      <c r="C78">
+        <v>-0.09082937607978227</v>
+      </c>
+      <c r="D78">
+        <v>-0.06706644851652456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02750145115174319</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03664269589218536</v>
+      </c>
+      <c r="C79">
+        <v>-0.156228165516214</v>
+      </c>
+      <c r="D79">
+        <v>-0.03532667124060982</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004884410629014372</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01053637390844037</v>
+      </c>
+      <c r="C80">
+        <v>-0.04119886898145779</v>
+      </c>
+      <c r="D80">
+        <v>-0.03470493509806798</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>9.001225255002587e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01438779662699522</v>
+      </c>
+      <c r="C81">
+        <v>-0.1196685280840572</v>
+      </c>
+      <c r="D81">
+        <v>-0.0565950342013237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006761811478017146</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01955203004710071</v>
+      </c>
+      <c r="C82">
+        <v>-0.1419782344083088</v>
+      </c>
+      <c r="D82">
+        <v>-0.04917448800369454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006444205391608633</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009591298007993803</v>
+      </c>
+      <c r="C83">
+        <v>-0.05572642138412976</v>
+      </c>
+      <c r="D83">
+        <v>-0.05094792107957012</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01326546631769031</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01161919593539721</v>
+      </c>
+      <c r="C84">
+        <v>-0.02981726036695947</v>
+      </c>
+      <c r="D84">
+        <v>-0.001001262414786395</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01647514348981162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02775447716415294</v>
+      </c>
+      <c r="C85">
+        <v>-0.1278568888907003</v>
+      </c>
+      <c r="D85">
+        <v>-0.05464984303141072</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003858491257889026</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005444183859029911</v>
+      </c>
+      <c r="C86">
+        <v>-0.0475809942172726</v>
+      </c>
+      <c r="D86">
+        <v>-0.026987829894301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007722005982139547</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009709752015479399</v>
+      </c>
+      <c r="C87">
+        <v>-0.127474181231644</v>
+      </c>
+      <c r="D87">
+        <v>-0.08163258888439678</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01424232140372907</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003031437147928219</v>
+      </c>
+      <c r="C88">
+        <v>-0.06891302514030928</v>
+      </c>
+      <c r="D88">
+        <v>-0.02031249509156644</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01498665173274247</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001136838167957023</v>
+      </c>
+      <c r="C89">
+        <v>-0.1663064960740143</v>
+      </c>
+      <c r="D89">
+        <v>0.3440550341832682</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.003138870061132264</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007116469866715301</v>
+      </c>
+      <c r="C90">
+        <v>-0.1447648326437612</v>
+      </c>
+      <c r="D90">
+        <v>0.3176854351051622</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002440163449461251</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01019065232172796</v>
+      </c>
+      <c r="C91">
+        <v>-0.1029245556261148</v>
+      </c>
+      <c r="D91">
+        <v>-0.02287933659904851</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01389658990228426</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0003503689166497433</v>
+      </c>
+      <c r="C92">
+        <v>-0.1540565992082457</v>
+      </c>
+      <c r="D92">
+        <v>0.3265693992727538</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001854368572459636</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005118399415442814</v>
+      </c>
+      <c r="C93">
+        <v>-0.1259450638937857</v>
+      </c>
+      <c r="D93">
+        <v>0.3090775592541099</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003499419603039747</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02188370117439791</v>
+      </c>
+      <c r="C94">
+        <v>-0.1568135914083064</v>
+      </c>
+      <c r="D94">
+        <v>-0.03511190410550525</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005196433224631807</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01584856733421318</v>
+      </c>
+      <c r="C95">
+        <v>-0.1221480635378779</v>
+      </c>
+      <c r="D95">
+        <v>-0.06994553326918927</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.003412825780213925</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03470421760299238</v>
+      </c>
+      <c r="C97">
+        <v>-0.1737243724511275</v>
+      </c>
+      <c r="D97">
+        <v>-0.04284218717978574</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.006277796662108193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03538975845089425</v>
+      </c>
+      <c r="C98">
+        <v>-0.2581237211859687</v>
+      </c>
+      <c r="D98">
+        <v>-0.04162746463771505</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9805550233944097</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9828815939041585</v>
+      </c>
+      <c r="C99">
+        <v>0.1077694456760092</v>
+      </c>
+      <c r="D99">
+        <v>0.03336675407153912</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001609754996243177</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003262002371239059</v>
+      </c>
+      <c r="C101">
+        <v>-0.0478036990307691</v>
+      </c>
+      <c r="D101">
+        <v>-0.01722131518856517</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
